--- a/grid/tieline_substations.xlsx
+++ b/grid/tieline_substations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,11 +466,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">buers </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t xml:space="preserve">bürs </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TRANSNETBW</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -480,11 +488,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">liskovec </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>cikovce</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ELES</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -497,8 +513,16 @@
           <t>repiquage bifferdange 220kv</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ELIA</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -508,11 +532,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>y-laufenburg</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>meiningen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>APG</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -522,11 +554,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mont-saint-martin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+          <t>walgauwerk</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>APG</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
@@ -536,11 +576,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>vulcanesti</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>monceau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELIA</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
@@ -550,321 +598,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>vill</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+          <t>prijedor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HOPS</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>sotel</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>monceau</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>mt-saint-martin</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>oftringen</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>sisak</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>nemo convertor station</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">redwitz </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>walgauwerk</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>rohrsdorf</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>liskowiec</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">niederrhein </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>cikovce</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>prijedor</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>krosno</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>werben</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>kempten</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>meiningen</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>senice</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>durnrohr</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>walgau</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>kasso</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>sanem</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
